--- a/practicaFinalRedone/TouchGFX/assets/texts/texts.xlsx
+++ b/practicaFinalRedone/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="78">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -189,6 +189,66 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--.--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera Frame Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Scale Max Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Scale Min Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789.</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1490,9 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -1534,7 +1596,9 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -1770,6 +1834,193 @@
         <v>50</v>
       </c>
     </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
